--- a/products.xlsx
+++ b/products.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="63">
   <si>
     <t>Product Name</t>
   </si>
@@ -23,6 +23,183 @@
   </si>
   <si>
     <t>Product Rating</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>8491,8992,199</t>
+  </si>
+  <si>
+    <t>In Stock</t>
+  </si>
+  <si>
+    <t>iClever Bluetooth Keyboard BK10, Multi-Device Rechargeable Wireless Keyboard with Number Pad, Ergonomic Design, Ultra-Thin, Minimalist Design Keyboard for Windows iPad iPhone Tablet, Sliver iClever Bluetooth Keyboard BK10, Multi-Device Rechargeable Wireless Keyboard with Number Pad, Ergonomic Design, Ultra-Thin, Minimalist Design Keyboard for Windows iPad iPhone Tablet, Sliver</t>
+  </si>
+  <si>
+    <t>2,599</t>
+  </si>
+  <si>
+    <t>4.0 out of 5 stars</t>
+  </si>
+  <si>
+    <t>cimetech Wireless Bluetooth Keyboard, Ultra-Slim Silent Portable Mini Keyboard for iPad/Tablet/Mac/Laptop/Desktop- Silver/White cimetech Wireless Bluetooth Keyboard, Ultra-Slim Silent Portable Mini Keyboard for iPad/Tablet/Mac/Laptop/Desktop- Silver/White</t>
+  </si>
+  <si>
+    <t>1,799</t>
+  </si>
+  <si>
+    <t>3.9 out of 5 stars</t>
+  </si>
+  <si>
+    <t>Zebronics ZEB-KM2100 Multimedia USB Keyboard Comes with 114 Keys Including 12 Dedicated Multimedia Keys &amp; with Rupee Key Zebronics ZEB-KM2100 Multimedia USB Keyboard Comes with 114 Keys Including 12 Dedicated Multimedia Keys &amp; with Rupee Key</t>
+  </si>
+  <si>
+    <t>499</t>
+  </si>
+  <si>
+    <t>3.7 out of 5 stars</t>
+  </si>
+  <si>
+    <t>ZEBRONICS USB Keyboard with Rupee Key, USB Interface and Retractable stand - K20 ZEBRONICS USB Keyboard with Rupee Key, USB Interface and Retractable stand - K20</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>ZEBRONICS K24 USB Keyboard with Long Life 8 Million Keystrokes, Silent &amp; Comfortable Use, Slim Design, Retractable Stand, 1.3 Meter Textured Cable, Chiclet Keys and Uv Coated Keycaps ZEBRONICS K24 USB Keyboard with Long Life 8 Million Keystrokes, Silent &amp; Comfortable Use, Slim Design, Retractable Stand, 1.3 Meter Textured Cable, Chiclet Keys and Uv Coated Keycaps</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>iClever Bluetooth Keyboard BK10, Multi-Device Rechargeable Wireless Keyboard with Number Pad, Ergonomic Design, Ultra-Thin, Minimalist Design Keyboard for Windows iPad iPhone Tablet, Sliver iClever Bluetooth Keyboard BK10, Multi-Device Rechargeable Wireless Keyboard with Number Pad, Ergonomic Design, Ultra-Thin, Minimalist Design Keyboard for Windows iPad iPhone Tablet, SliverPortronics Ki-Pad 2 USB Wired Keyboard with 104 Keys, Dual Color Chicklet Keys, Rupee Symbol (₹) Key, Noiseless Typing, 1.5 m Long Cable, 10 Million Keystrokes Long Life for PC, Laptop &amp; USB-Supported Devices (Black) Portronics Ki-Pad 2 USB Wired Keyboard with 104 Keys, Dual Color Chicklet Keys, Rupee Symbol (₹) Key, Noiseless Typing, 1.5 m Long Cable, 10 Million Keystrokes Long Life for PC, Laptop &amp; USB-Supported Devices (Black)ColorCoral Keyboard Cleaner Universal HEPA Filter Cleaning Gel For Pc Tablet Laptop Keyboards, Car Vents, Cameras, Printers, Calculators From Colorcoral 160G, White ColorCoral Keyboard Cleaner Universal HEPA Filter Cleaning Gel For Pc Tablet Laptop Keyboards, Car Vents, Cameras, Printers, Calculators From Colorcoral 160G, WhiteSIS PS2 KB 110-key PS2 Multimedia Keyboard(MM KB, PS/2) SIS PS2 KB 110-key PS2 Multimedia Keyboard(MM KB, PS/2)cimetech Wireless Keyboard, 2.4G Ultra-Thin Ergonomic Portable Keyboard, Silent Keyboard Compatible with Windows, Mac, Laptop, PC, Desktop - Grey cimetech Wireless Keyboard, 2.4G Ultra-Thin Ergonomic Portable Keyboard, Silent Keyboard Compatible with Windows, Mac, Laptop, PC, Desktop - Grey</t>
+  </si>
+  <si>
+    <t>2,599499208.1,4951,999</t>
+  </si>
+  <si>
+    <t>4.0 out of 5 stars4.1 out of 5 stars4.1 out of 5 stars4.0 out of 5 stars4.2 out of 5 stars</t>
+  </si>
+  <si>
+    <t>Portronics Ki-Pad 2 USB Wired Keyboard with 104 Keys, Dual Color Chicklet Keys, Rupee Symbol (₹) Key, Noiseless Typing, 1.5 m Long Cable, 10 Million Keystrokes Long Life for PC, Laptop &amp; USB-Supported Devices (Black) Portronics Ki-Pad 2 USB Wired Keyboard with 104 Keys, Dual Color Chicklet Keys, Rupee Symbol (₹) Key, Noiseless Typing, 1.5 m Long Cable, 10 Million Keystrokes Long Life for PC, Laptop &amp; USB-Supported Devices (Black)</t>
+  </si>
+  <si>
+    <t>4.1 out of 5 stars</t>
+  </si>
+  <si>
+    <t>ColorCoral Keyboard Cleaner Universal HEPA Filter Cleaning Gel For Pc Tablet Laptop Keyboards, Car Vents, Cameras, Printers, Calculators From Colorcoral 160G, White ColorCoral Keyboard Cleaner Universal HEPA Filter Cleaning Gel For Pc Tablet Laptop Keyboards, Car Vents, Cameras, Printers, Calculators From Colorcoral 160G, White</t>
+  </si>
+  <si>
+    <t>208.</t>
+  </si>
+  <si>
+    <t>SIS PS2 KB 110-key PS2 Multimedia Keyboard(MM KB, PS/2) SIS PS2 KB 110-key PS2 Multimedia Keyboard(MM KB, PS/2)</t>
+  </si>
+  <si>
+    <t>1,495</t>
+  </si>
+  <si>
+    <t>cimetech Wireless Keyboard, 2.4G Ultra-Thin Ergonomic Portable Keyboard, Silent Keyboard Compatible with Windows, Mac, Laptop, PC, Desktop - Grey cimetech Wireless Keyboard, 2.4G Ultra-Thin Ergonomic Portable Keyboard, Silent Keyboard Compatible with Windows, Mac, Laptop, PC, Desktop - Grey</t>
+  </si>
+  <si>
+    <t>1,999</t>
+  </si>
+  <si>
+    <t>4.2 out of 5 stars</t>
+  </si>
+  <si>
+    <t>Dell KB216-Black Multimedia Wired Keyboard with USB Interface, Plunger Keys Technology and Chiclet Key Style, Hot Key-Volume, Mute, Play/Pause, Backward, Forward, Warranty 1 Year. Dell KB216-Black Multimedia Wired Keyboard with USB Interface, Plunger Keys Technology and Chiclet Key Style, Hot Key-Volume, Mute, Play/Pause, Backward, Forward, Warranty 1 Year.</t>
+  </si>
+  <si>
+    <t>569</t>
+  </si>
+  <si>
+    <t>4.3 out of 5 stars</t>
+  </si>
+  <si>
+    <t>LAPCARE Alfa Keyboard 3 with Adjustable Kickstand, Capslock Indicator and 104 Keyboard Standard Key, USB 2.0 (Black) LAPCARE Alfa Keyboard 3 with Adjustable Kickstand, Capslock Indicator and 104 Keyboard Standard Key, USB 2.0 (Black)</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>3.4 out of 5 stars</t>
+  </si>
+  <si>
+    <t>ZEBRONICS K51 Wired Keyboard with 105 Keys, 1.3m Cable, ₹ Key, USB Interface, 12 Integrated Multimedia Keys, Slim Design, Plug and Play (Black) ZEBRONICS K51 Wired Keyboard with 105 Keys, 1.3m Cable, ₹ Key, USB Interface, 12 Integrated Multimedia Keys, Slim Design, Plug and Play (Black)</t>
+  </si>
+  <si>
+    <t>399</t>
+  </si>
+  <si>
+    <t>Logitech K120 Wired Keyboard for Windows, USB Plug-and-Play, Full-Size, Spill-Resistant, Curved Space Bar, Compatible with PC, Laptop Logitech K120 Wired Keyboard for Windows, USB Plug-and-Play, Full-Size, Spill-Resistant, Curved Space Bar, Compatible with PC, Laptop</t>
+  </si>
+  <si>
+    <t>599</t>
+  </si>
+  <si>
+    <t>amazon basics Wired Multimedia Keyboard with 107 Keys, USB 2.0 Interface, for Gaming Pc, Computer, Laptop, Mac amazon basics Wired Multimedia Keyboard with 107 Keys, USB 2.0 Interface, for Gaming Pc, Computer, Laptop, Mac</t>
+  </si>
+  <si>
+    <t>339</t>
+  </si>
+  <si>
+    <t>FINGERS TeenyClicks Wireless Mini Bluetooth Keyboard (3-in-1: Connect 3 Devices, 5-in-1: Windows®, macOS, Android™, Linux, Chrome OS, Special X-Type Scissors, 45 Days worktime) FINGERS TeenyClicks Wireless Mini Bluetooth Keyboard (3-in-1: Connect 3 Devices, 5-in-1: Windows®, macOS, Android™, Linux, Chrome OS, Special X-Type Scissors, 45 Days worktime)</t>
+  </si>
+  <si>
+    <t>899</t>
+  </si>
+  <si>
+    <t>Ant Esports MK1400 Pro Backlit Membrane Wired Gaming Keyboard with Mixed Colour Lighting, White &amp; Black Keycaps, Double Injection Key Caps - Black Ant Esports MK1400 Pro Backlit Membrane Wired Gaming Keyboard with Mixed Colour Lighting, White &amp; Black Keycaps, Double Injection Key Caps - Black</t>
+  </si>
+  <si>
+    <t>579</t>
+  </si>
+  <si>
+    <t>Portronics Ki-Pad 3 USB Wired Keyboard with Large Keycaps, Noise-Free Typing, Fn Multimedia Hotkeys, Full-Size Layout with Num Pad, Ergonomic Design, 1.5m USB Cable, for Laptop, PC, Mac (Blue) Portronics Ki-Pad 3 USB Wired Keyboard with Large Keycaps, Noise-Free Typing, Fn Multimedia Hotkeys, Full-Size Layout with Num Pad, Ergonomic Design, 1.5m USB Cable, for Laptop, PC, Mac (Blue)</t>
+  </si>
+  <si>
+    <t>ZEBRONICS USB New Launch Trion Gaming Keyboard &amp; Mouse Gaming Combo, 104 Keys Backlit, Translucent Material, Multi Color LED, Multi DPI Modes, High Precision Key ZEBRONICS USB New Launch Trion Gaming Keyboard &amp; Mouse Gaming Combo, 104 Keys Backlit, Translucent Material, Multi Color LED, Multi DPI Modes, High Precision Key</t>
+  </si>
+  <si>
+    <t>699</t>
+  </si>
+  <si>
+    <t>ZEBRONICS K36 Wired USB Keyboard with 106 Keys, Slim Design, Smartphone Holder, Retractable Stand, 1.2m Cable Length with ₹ Rupee Key ZEBRONICS K36 Wired USB Keyboard with 106 Keys, Slim Design, Smartphone Holder, Retractable Stand, 1.2m Cable Length with ₹ Rupee Key</t>
+  </si>
+  <si>
+    <t>HP K100 Wired Keyboard, Quick, Comfy and Accurate, USB Plug &amp; Play Setup,LED Indicators(7J4G1AA) HP K100 Wired Keyboard, Quick, Comfy and Accurate, USB Plug &amp; Play Setup,LED Indicators(7J4G1AA)</t>
+  </si>
+  <si>
+    <t>Amazon Basics Wired Keyboard with 104 Keys for Windows, Mac OS Computer Amazon Basics Wired Keyboard with 104 Keys for Windows, Mac OS Computer</t>
+  </si>
+  <si>
+    <t>EvoFox Fireblade Wired TKL Gaming Keyboard with Breathing Effect |Backlit Keyboard Membrane, Mixed Color Lighting, Floating Keycaps, 19 Anti-Ghosting Keys, Windows Lock Key, Braided Cable (Black) EvoFox Fireblade Wired TKL Gaming Keyboard with Breathing Effect |Backlit Keyboard Membrane, Mixed Color Lighting, Floating Keycaps, 19 Anti-Ghosting Keys, Windows Lock Key, Braided Cable (Black)</t>
+  </si>
+  <si>
+    <t>849</t>
+  </si>
+  <si>
+    <t>Apple Magic Keyboard - US English - Silver (for Mac with macOS 11.3 or Later, iPad Running iPadOS 14.5 or Later) Apple Magic Keyboard - US English - Silver (for Mac with macOS 11.3 or Later, iPad Running iPadOS 14.5 or Later)</t>
+  </si>
+  <si>
+    <t>9,500</t>
+  </si>
+  <si>
+    <t>4.7 out of 5 stars</t>
+  </si>
+  <si>
+    <t>RL Enterpise Keyboard Raiser Stand for Medium Size Business Keyboards | Foldable Key Board Holder Stand for Office Desk and Study Table RL Enterpise Keyboard Raiser Stand for Medium Size Business Keyboards | Foldable Key Board Holder Stand for Office Desk and Study Table</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
+    <t>reMarkable 2 Bundle - The Original Paper Tablet | Includes 10.3" reMarkable Tablet, Marker Plus Pen with Built-in Eraser, and 1-Year Free Connect Trial reMarkable 2 Bundle - The Original Paper Tablet | Includes 10.3" reMarkable Tablet, Marker Plus Pen with Built-in Eraser, and 1-Year Free Connect Trial</t>
+  </si>
+  <si>
+    <t>43,999</t>
   </si>
 </sst>
 </file>
@@ -399,7 +576,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D40"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -420,6 +597,552 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
